--- a/bfl.xlsx
+++ b/bfl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="357">
   <si>
     <t>Equipo</t>
   </si>
@@ -1081,6 +1081,9 @@
   </si>
   <si>
     <t>Perdidas</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, M. ALVAREZ, S. GARCIA NIÑO</t>
   </si>
 </sst>
 </file>
@@ -17354,7 +17357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17401,6 +17404,47 @@
         <v>355</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>-55.43333333333333</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/bfl.xlsx
+++ b/bfl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="362">
   <si>
     <t>Equipo</t>
   </si>
@@ -1084,6 +1084,21 @@
   </si>
   <si>
     <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, M. ALVAREZ, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
   </si>
 </sst>
 </file>
@@ -17357,7 +17372,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17412,7 +17427,7 @@
         <v>356</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>-55.43333333333333</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>6.0</v>
@@ -17443,6 +17458,211 @@
       </c>
       <c r="M2" t="n" s="0">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>-83.75</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/bfl.xlsx
+++ b/bfl.xlsx
@@ -1135,8 +1135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -17377,6 +17378,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="4" max="4" style="2" width="8.0" customWidth="false"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -17388,7 +17392,7 @@
       <c r="C1" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s" s="2">
         <v>346</v>
       </c>
       <c r="E1" t="s" s="0">
@@ -17426,10 +17430,10 @@
       <c r="B2" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="D2" t="n" s="0">
+      <c r="C2" t="n" s="2">
+        <v>0.0022916666666666667</v>
+      </c>
+      <c r="D2" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="E2" t="n" s="0">
@@ -17467,10 +17471,10 @@
       <c r="B3" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="D3" t="n" s="0">
+      <c r="C3" t="n" s="2">
+        <v>4.166666666666664E-4</v>
+      </c>
+      <c r="D3" t="n" s="2">
         <v>2.0</v>
       </c>
       <c r="E3" t="n" s="0">
@@ -17508,10 +17512,10 @@
       <c r="B4" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="D4" t="n" s="0">
+      <c r="C4" t="n" s="2">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D4" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
@@ -17549,10 +17553,10 @@
       <c r="B5" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="D5" t="n" s="0">
+      <c r="C5" t="n" s="2">
+        <v>4.861111111111106E-4</v>
+      </c>
+      <c r="D5" t="n" s="2">
         <v>2.0</v>
       </c>
       <c r="E5" t="n" s="0">
@@ -17590,10 +17594,10 @@
       <c r="B6" t="s" s="0">
         <v>360</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="n" s="0">
+      <c r="C6" t="n" s="2">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="D6" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="E6" t="n" s="0">
@@ -17631,10 +17635,10 @@
       <c r="B7" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>-83.75</v>
-      </c>
-      <c r="D7" t="n" s="0">
+      <c r="C7" t="n" s="2">
+        <v>-0.058159722222222224</v>
+      </c>
+      <c r="D7" t="n" s="2">
         <v>12.0</v>
       </c>
       <c r="E7" t="n" s="0">

--- a/bfl.xlsx
+++ b/bfl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="379">
   <si>
     <t>Equipo</t>
   </si>
@@ -1086,13 +1086,64 @@
     <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, M. ALVAREZ, S. GARCIA NIÑO</t>
   </si>
   <si>
+    <t>D. DÍAZ GÓMEZ, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, J. MARTINEZ LLAMAZARES, L. GARCIA ANDRES, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
+  </si>
+  <si>
     <t>F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ</t>
   </si>
   <si>
     <t>D. DÍAZ GÓMEZ, F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ</t>
   </si>
   <si>
+    <t>D. DÍAZ GÓMEZ, F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
     <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, K. BENITEZ DE LA ROSA, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
   </si>
   <si>
     <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
@@ -17373,13 +17424,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="4" max="4" style="2" width="8.0" customWidth="false"/>
+    <col min="3" max="3" style="2" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17389,10 +17440,10 @@
       <c r="B1" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="0">
         <v>346</v>
       </c>
       <c r="E1" t="s" s="0">
@@ -17431,22 +17482,22 @@
         <v>356</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>0.0022916666666666667</v>
-      </c>
-      <c r="D2" t="n" s="2">
+        <v>0.0037731481481481483</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>2.0</v>
-      </c>
       <c r="G2" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I2" t="n" s="0">
         <v>0.0</v>
@@ -17461,7 +17512,7 @@
         <v>0.0</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -17472,22 +17523,22 @@
         <v>357</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>4.166666666666664E-4</v>
-      </c>
-      <c r="D3" t="n" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>0.0</v>
@@ -17513,16 +17564,16 @@
         <v>358</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D4" t="n" s="2">
+        <v>7.407407407407406E-4</v>
+      </c>
+      <c r="D4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
@@ -17543,7 +17594,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -17554,22 +17605,22 @@
         <v>359</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>4.861111111111106E-4</v>
-      </c>
-      <c r="D5" t="n" s="2">
-        <v>2.0</v>
+        <v>5.787037037037078E-5</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>0.0</v>
@@ -17584,7 +17635,7 @@
         <v>0.0</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -17595,22 +17646,22 @@
         <v>360</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>3.4722222222222224E-4</v>
-      </c>
-      <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>0.0011689814814814816</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>2.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>0.0</v>
@@ -17625,7 +17676,7 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -17636,36 +17687,733 @@
         <v>361</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>-0.058159722222222224</v>
-      </c>
-      <c r="D7" t="n" s="2">
+        <v>0.002534722222222221</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>5.555555555555561E-4</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>5.439814814814814E-4</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>6.944444444444445E-4</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>0.0018055555555555566</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>3.9351851851851836E-4</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>0.0012962962962962967</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>7.986111111111101E-4</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>0.004085648148148148</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>2.3148148148148065E-4</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>3.0092592592592855E-4</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>0.0036226851851851867</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="C22" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="C23" t="n" s="2">
+        <v>7.986111111111101E-4</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="C24" t="n" s="2">
+        <v>0.004004629629629629</v>
+      </c>
+      <c r="D24" t="n" s="0">
         <v>12.0</v>
       </c>
-      <c r="E7" t="n" s="0">
+      <c r="E24" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="F7" t="n" s="0">
+      <c r="F24" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="G7" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
+      <c r="G24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="I7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n" s="0">
+      <c r="I24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>

--- a/bfl.xlsx
+++ b/bfl.xlsx
@@ -17616,7 +17616,7 @@
         <v>0.0037731481481481483</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>2.0</v>
@@ -17631,10 +17631,10 @@
         <v>5.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K2" t="n" s="0">
         <v>0.0</v>
@@ -17698,7 +17698,7 @@
         <v>6.94444444444442E-5</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
@@ -17713,10 +17713,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.0</v>
@@ -17821,7 +17821,7 @@
         <v>0.0018749999999999995</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
@@ -17836,10 +17836,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.0</v>
@@ -17903,7 +17903,7 @@
         <v>5.555555555555561E-4</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>1.0</v>
@@ -17918,10 +17918,10 @@
         <v>0.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.0</v>
@@ -18044,7 +18044,7 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K12" t="n" s="0">
         <v>0.0</v>
@@ -18231,7 +18231,7 @@
         <v>0.004085648148148148</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>5.0</v>
@@ -18246,10 +18246,10 @@
         <v>3.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K17" t="n" s="0">
         <v>0.0</v>
@@ -18313,7 +18313,7 @@
         <v>0.0</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>0.0</v>
@@ -18328,10 +18328,10 @@
         <v>0.0</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K19" t="n" s="0">
         <v>0.0</v>
@@ -18477,7 +18477,7 @@
         <v>0.0015856481481481468</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>1.0</v>
@@ -18492,10 +18492,10 @@
         <v>1.0</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K23" t="n" s="0">
         <v>0.0</v>
@@ -18518,7 +18518,7 @@
         <v>0.0020370370370370395</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>3.0</v>
@@ -18533,10 +18533,10 @@
         <v>3.0</v>
       </c>
       <c r="I24" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J24" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K24" t="n" s="0">
         <v>0.0</v>

--- a/bfl.xlsx
+++ b/bfl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="377">
   <si>
     <t>Equipo</t>
   </si>
@@ -1101,73 +1101,49 @@
     <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, M. ALVAREZ, S. GARCIA NIÑO</t>
   </si>
   <si>
+    <t>A. MARTIN CASTAÑEDA, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
     <t>→ Rival (ROBLES LLEIDA)</t>
   </si>
   <si>
-    <t>D. DÍAZ GÓMEZ, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
+    <t>A. MARTIN CASTAÑEDA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>A. MARTIN CASTAÑEDA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
+  </si>
+  <si>
+    <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ, S. GARCIA NIÑO</t>
   </si>
   <si>
     <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
   </si>
   <si>
-    <t>A. MARTIN CASTAÑEDA, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
-    <t>A. MARTIN CASTAÑEDA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
-    <t>A. MARTIN CASTAÑEDA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
-  </si>
-  <si>
-    <t>A. MARTIN CASTAÑEDA, J. MARTINEZ LLAMAZARES, L. GARCIA ANDRES, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
-  </si>
-  <si>
-    <t>F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ</t>
-  </si>
-  <si>
-    <t>D. DÍAZ GÓMEZ, F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ</t>
-  </si>
-  <si>
-    <t>D. DÍAZ GÓMEZ, F. DEMBELE, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
-    <t>D. DÍAZ GÓMEZ, F. DEMBELE, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
-    <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
-    <t>D. DÍAZ GÓMEZ, J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
-  </si>
-  <si>
-    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ, S. GARCIA NIÑO</t>
-  </si>
-  <si>
-    <t>J. MARTINEZ LLAMAZARES, K. BENITEZ DE LA ROSA, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
-  </si>
-  <si>
     <t>J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
   </si>
   <si>
     <t>J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ, S. GARCIA NIÑO</t>
   </si>
   <si>
-    <t>J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
-  </si>
-  <si>
     <t>A. MARTIN CASTAÑEDA, J. MARTINEZ LLAMAZARES, L. RODRIGUEZ DE LA TORRIENTE, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
   </si>
   <si>
-    <t>A. MARTIN CASTAÑEDA, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO, S. GARCIA NIÑO</t>
-  </si>
-  <si>
-    <t>A. MARTIN CASTAÑEDA, K. BENITEZ DE LA ROSA, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
     <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, N. MARTÍNEZ MARTÍNEZ, P. VAQUERA BLANCO</t>
-  </si>
-  <si>
-    <t>K. BENITEZ DE LA ROSA, L. GARCIA ANDRES, L. RODRIGUEZ DE LA TORRIENTE, M. ALVAREZ, N. MARTÍNEZ MARTÍNEZ</t>
   </si>
 </sst>
 </file>
@@ -17674,7 +17650,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17766,32 +17742,35 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="B3" t="s" s="0">
         <v>362</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>0.003148148148148148</v>
+        <v>5.787037037037078E-5</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>0.0</v>
@@ -17800,21 +17779,18 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>1.0</v>
-      </c>
       <c r="B4" t="s" s="0">
         <v>363</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>0.0</v>
+        <v>3.5879629629629624E-4</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>0.0</v>
@@ -17829,10 +17805,10 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.0</v>
@@ -17841,7 +17817,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -17852,28 +17828,28 @@
         <v>364</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>6.94444444444442E-5</v>
+        <v>0.0011689814814814816</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="n" s="0">
         <v>0.0</v>
@@ -17882,12 +17858,12 @@
         <v>0.0</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>3.5879629629629624E-4</v>
@@ -17931,10 +17907,10 @@
         <v>365</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>5.787037037037078E-5</v>
+        <v>0.0018749999999999995</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>0.0</v>
@@ -17946,13 +17922,13 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.0</v>
@@ -17961,36 +17937,36 @@
         <v>0.0</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>3.5879629629629624E-4</v>
+        <v>0.0014814814814814818</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.0</v>
@@ -18004,497 +17980,497 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>6.597222222222217E-4</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="C9" t="n" s="2">
-        <v>0.0011689814814814816</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F9" t="n" s="0">
+      <c r="C10" t="n" s="2">
+        <v>5.439814814814814E-4</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>0.001666666666666667</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>6.944444444444445E-4</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>0.001666666666666667</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>3.9351851851851836E-4</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>7.175925925925925E-4</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>0.0012962962962962967</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="G9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C10" t="n" s="2">
-        <v>3.5879629629629624E-4</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="J10" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="K10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="C11" t="n" s="2">
-        <v>0.0018749999999999995</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
+      <c r="F16" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="K11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M11" t="n" s="0">
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>5.208333333333333E-4</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>7.986111111111101E-4</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>1.1574074074073909E-4</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
         <v>3.0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C12" t="n" s="2">
-        <v>0.0014814814814814818</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F12" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L12" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="C13" t="n" s="2">
-        <v>6.597222222222217E-4</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F13" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M13" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C14" t="n" s="2">
-        <v>7.870370370370367E-4</v>
-      </c>
-      <c r="D14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F14" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L14" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>368</v>
-      </c>
-      <c r="C15" t="n" s="2">
-        <v>5.555555555555561E-4</v>
-      </c>
-      <c r="D15" t="n" s="0">
+      <c r="B20" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>0.004085648148148148</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="K15" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L15" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M15" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C16" t="n" s="2">
-        <v>7.870370370370367E-4</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F16" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>369</v>
-      </c>
-      <c r="C17" t="n" s="2">
-        <v>5.439814814814814E-4</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C18" t="n" s="2">
-        <v>0.001666666666666667</v>
-      </c>
-      <c r="D18" t="n" s="0">
+      <c r="H20" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="K20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>0.001493055555555557</v>
+      </c>
+      <c r="D21" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="E18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>370</v>
-      </c>
-      <c r="C19" t="n" s="2">
-        <v>6.944444444444445E-4</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F19" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C20" t="n" s="2">
-        <v>0.001666666666666667</v>
-      </c>
-      <c r="D20" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="E20" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F20" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G20" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H20" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I20" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K20" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L20" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M20" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>371</v>
-      </c>
-      <c r="C21" t="n" s="2">
-        <v>0.0018055555555555566</v>
-      </c>
-      <c r="D21" t="n" s="0">
+      <c r="E21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F21" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="E21" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F21" t="n" s="0">
-        <v>6.0</v>
-      </c>
       <c r="G21" t="n" s="0">
         <v>1.0</v>
       </c>
@@ -18505,7 +18481,7 @@
         <v>0.0</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n" s="0">
         <v>0.0</v>
@@ -18514,30 +18490,33 @@
         <v>0.0</v>
       </c>
       <c r="M21" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>3.0</v>
+      </c>
       <c r="B22" t="s" s="0">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C22" t="n" s="2">
-        <v>7.175925925925925E-4</v>
+        <v>7.407407407407406E-4</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H22" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n" s="0">
         <v>0.0</v>
@@ -18557,13 +18536,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C23" t="n" s="2">
-        <v>3.9351851851851836E-4</v>
+        <v>2.3148148148148065E-4</v>
       </c>
       <c r="D23" t="n" s="0">
         <v>0.0</v>
@@ -18578,7 +18557,7 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n" s="0">
         <v>0.0</v>
@@ -18598,31 +18577,31 @@
     </row>
     <row r="24">
       <c r="B24" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C24" t="n" s="2">
-        <v>7.175925925925925E-4</v>
+        <v>0.002118055555555556</v>
       </c>
       <c r="D24" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I24" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="E24" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F24" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G24" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H24" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I24" t="n" s="0">
-        <v>0.0</v>
-      </c>
       <c r="J24" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K24" t="n" s="0">
         <v>0.0</v>
@@ -18636,28 +18615,28 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C25" t="n" s="2">
-        <v>0.0012962962962962967</v>
+        <v>3.0092592592592855E-4</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I25" t="n" s="0">
         <v>0.0</v>
@@ -18677,31 +18656,31 @@
     </row>
     <row r="26">
       <c r="B26" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C26" t="n" s="2">
-        <v>5.208333333333333E-4</v>
+        <v>0.002118055555555556</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I26" t="n" s="0">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J26" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K26" t="n" s="0">
         <v>0.0</v>
@@ -18715,16 +18694,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C27" t="n" s="2">
-        <v>7.986111111111101E-4</v>
+        <v>0.0015856481481481468</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E27" t="n" s="0">
         <v>1.0</v>
@@ -18739,10 +18718,10 @@
         <v>1.0</v>
       </c>
       <c r="I27" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K27" t="n" s="0">
         <v>0.0</v>
@@ -18751,36 +18730,36 @@
         <v>0.0</v>
       </c>
       <c r="M27" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C28" t="n" s="2">
-        <v>1.5046296296296428E-4</v>
+        <v>0.002118055555555556</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H28" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I28" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J28" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K28" t="n" s="0">
         <v>0.0</v>
@@ -18789,39 +18768,39 @@
         <v>0.0</v>
       </c>
       <c r="M28" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="C29" t="n" s="2">
+        <v>0.0020370370370370395</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="E29" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>374</v>
-      </c>
-      <c r="C29" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="0">
-        <v>0.0</v>
-      </c>
       <c r="F29" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G29" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H29" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I29" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K29" t="n" s="0">
         <v>0.0</v>
@@ -18834,67 +18813,67 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>3.0</v>
-      </c>
       <c r="B30" t="s" s="0">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C30" t="n" s="2">
-        <v>0.004085648148148148</v>
+        <v>0.0010995370370370386</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L30" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="K30" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L30" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M30" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="31">
       <c r="B31" t="s" s="0">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C31" t="n" s="2">
-        <v>0.0016203703703703695</v>
+        <v>7.986111111111101E-4</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H31" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n" s="0">
         <v>0.0</v>
@@ -18909,762 +18888,7 @@
         <v>0.0</v>
       </c>
       <c r="M31" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>364</v>
-      </c>
-      <c r="C32" t="n" s="2">
-        <v>7.407407407407406E-4</v>
-      </c>
-      <c r="D32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H32" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M32" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C33" t="n" s="2">
-        <v>0.0012962962962962967</v>
-      </c>
-      <c r="D33" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E33" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F33" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H33" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>376</v>
-      </c>
-      <c r="C34" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D34" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I34" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="J34" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="K34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="C35" t="n" s="2">
-        <v>2.3148148148148065E-4</v>
-      </c>
-      <c r="D35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M35" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C36" t="n" s="2">
-        <v>0.002118055555555556</v>
-      </c>
-      <c r="D36" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E36" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F36" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G36" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H36" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I36" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J36" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="K36" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L36" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M36" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>378</v>
-      </c>
-      <c r="C37" t="n" s="2">
-        <v>3.0092592592592855E-4</v>
-      </c>
-      <c r="D37" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H37" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M37" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C38" t="n" s="2">
-        <v>0.002118055555555556</v>
-      </c>
-      <c r="D38" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E38" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F38" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G38" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H38" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I38" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J38" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="K38" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L38" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M38" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>379</v>
-      </c>
-      <c r="C39" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C40" t="n" s="2">
-        <v>0.002118055555555556</v>
-      </c>
-      <c r="D40" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E40" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F40" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G40" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H40" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I40" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J40" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="K40" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L40" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M40" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>380</v>
-      </c>
-      <c r="C41" t="n" s="2">
-        <v>0.0015856481481481468</v>
-      </c>
-      <c r="D41" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E41" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F41" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G41" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H41" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I41" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="J41" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="K41" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L41" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M41" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C42" t="n" s="2">
-        <v>0.002118055555555556</v>
-      </c>
-      <c r="D42" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E42" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F42" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="G42" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H42" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I42" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J42" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="K42" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L42" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M42" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>380</v>
-      </c>
-      <c r="C43" t="n" s="2">
-        <v>0.0020370370370370395</v>
-      </c>
-      <c r="D43" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="E43" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F43" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="I43" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="J43" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="K43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C44" t="n" s="2">
-        <v>0.0010995370370370386</v>
-      </c>
-      <c r="D44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L44" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M44" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>381</v>
-      </c>
-      <c r="C45" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>382</v>
-      </c>
-      <c r="C46" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="G46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M46" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>383</v>
-      </c>
-      <c r="C47" t="n" s="2">
-        <v>7.986111111111101E-4</v>
-      </c>
-      <c r="D47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="F47" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="I47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C48" t="n" s="2">
-        <v>0.0023726851851851834</v>
-      </c>
-      <c r="D48" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E48" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F48" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G48" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H48" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="I48" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="J48" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="K48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L48" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M48" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>384</v>
-      </c>
-      <c r="C49" t="n" s="2">
-        <v>0.004004629629629629</v>
-      </c>
-      <c r="D49" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="E49" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F49" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="G49" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="H49" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="I49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="J49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M49" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="C50" t="n" s="2">
-        <v>0.0023726851851851834</v>
-      </c>
-      <c r="D50" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="E50" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F50" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G50" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="I50" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="J50" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="K50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L50" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="M50" t="n" s="0">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
